--- a/docs/source/recursos/energia/tabla_cat_fv_ene_ind_eol_cobertura_usv_svi_16cats.xlsx
+++ b/docs/source/recursos/energia/tabla_cat_fv_ene_ind_eol_cobertura_usv_svi_16cats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\energia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\energia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03378EFA-4425-4A2F-B104-15D8BE2A4498}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD23DD82-6916-4025-96E7-E6405B971778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24255" yWindow="-2340" windowWidth="21060" windowHeight="15240" xr2:uid="{C74C4125-4B3A-4D8B-8F3A-4F072A0C490F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C74C4125-4B3A-4D8B-8F3A-4F072A0C490F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Vegetación de petén</t>
   </si>
   <si>
-    <t>Sábana</t>
-  </si>
-  <si>
     <t>Sin vegetación</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>FV</t>
+  </si>
+  <si>
+    <t>Sabana</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,16 +487,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -602,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -742,18 +742,11 @@
     <sortCondition descending="1" ref="D2:D18"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C157" xr:uid="{21522FF9-337A-4A30-846B-7D4A901D5414}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21522FF9-337A-4A30-846B-7D4A901D5414}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C157</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>